--- a/frontend/public/Create_file_bulk_upload.xlsx
+++ b/frontend/public/Create_file_bulk_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dapo\FTS\web\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D438478-AE57-4CB5-8955-83D701506DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F245B9A5-007D-4C48-B422-EF86FD28D0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{E4F42232-057A-4318-BAF7-F66AE4AE9D35}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5" uniqueCount="5">
   <si>
     <t>File name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Opening date</t>
+  </si>
+  <si>
+    <t>Phone number</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D223C6BB-5ACC-4F5D-8BBA-7C312A2D9EDA}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,9 +425,10 @@
     <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="3" max="3" width="29.54296875" customWidth="1"/>
     <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,6 +440,9 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
